--- a/Test_M/velostrassen_ID_sheet.xlsx
+++ b/Test_M/velostrassen_ID_sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\OneDrive\Dokumente\GitHub\Kerstin_Michael\Test_M\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e40987e780b3da84/Desktop/UniBas/Data_Sem/Kerstin_Michael/Test_M/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62230F33-2376-48B0-9E4C-BAD135909CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="13_ncr:1_{62230F33-2376-48B0-9E4C-BAD135909CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64C70A04-01DA-4C46-9E44-1E66C75C14C2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="0" windowWidth="21585" windowHeight="13403" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
   <si>
     <t>name</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>month</t>
-  </si>
-  <si>
-    <t>day</t>
   </si>
   <si>
     <t>Müllhauserstrasse</t>
@@ -140,6 +137,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -405,23 +406,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -432,13 +433,10 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -446,10 +444,16 @@
       <c r="C2">
         <v>54</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>2021</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -457,10 +461,16 @@
       <c r="C3">
         <v>56</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>2021</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -468,10 +478,16 @@
       <c r="C4">
         <v>58</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>2021</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <v>6</v>
@@ -479,10 +495,16 @@
       <c r="C5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>2021</v>
+      </c>
+      <c r="E5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>7</v>
@@ -490,10 +512,16 @@
       <c r="C6">
         <v>45</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>2021</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>8</v>
@@ -501,10 +529,16 @@
       <c r="C7">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>2021</v>
+      </c>
+      <c r="E7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>9</v>
@@ -512,10 +546,16 @@
       <c r="C8">
         <v>37</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>2021</v>
+      </c>
+      <c r="E8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>10</v>
@@ -523,10 +563,16 @@
       <c r="C9">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>2021</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>11</v>
@@ -534,10 +580,16 @@
       <c r="C10">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>2021</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>11</v>
@@ -545,10 +597,16 @@
       <c r="C11">
         <v>39</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>2021</v>
+      </c>
+      <c r="E11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -556,10 +614,16 @@
       <c r="C12">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>2016</v>
+      </c>
+      <c r="E12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -567,10 +631,16 @@
       <c r="C13">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>2021</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -584,13 +654,10 @@
       <c r="E14">
         <v>4</v>
       </c>
-      <c r="F14">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15">
         <v>13</v>
@@ -598,10 +665,16 @@
       <c r="C15">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>2021</v>
+      </c>
+      <c r="E15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16">
         <v>13</v>
@@ -609,10 +682,16 @@
       <c r="C16">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>2021</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17">
         <v>13</v>
@@ -620,10 +699,16 @@
       <c r="C17">
         <v>23</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>2021</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -631,10 +716,16 @@
       <c r="C18">
         <v>34</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>2016</v>
+      </c>
+      <c r="E18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -642,10 +733,16 @@
       <c r="C19">
         <v>41</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>2016</v>
+      </c>
+      <c r="E19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -653,10 +750,16 @@
       <c r="C20">
         <v>43</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>2016</v>
+      </c>
+      <c r="E20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -664,10 +767,16 @@
       <c r="C21">
         <v>47</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>2016</v>
+      </c>
+      <c r="E21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -675,10 +784,16 @@
       <c r="C22">
         <v>49</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>2016</v>
+      </c>
+      <c r="E22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -686,10 +801,16 @@
       <c r="C23">
         <v>51</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>2016</v>
+      </c>
+      <c r="E23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B24">
         <v>14</v>
@@ -697,10 +818,16 @@
       <c r="C24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>2021</v>
+      </c>
+      <c r="E24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B25">
         <v>14</v>
@@ -708,10 +835,16 @@
       <c r="C25">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>2021</v>
+      </c>
+      <c r="E25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B26">
         <v>15</v>
@@ -719,16 +852,28 @@
       <c r="C26">
         <v>13</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>2021</v>
+      </c>
+      <c r="E26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B27">
         <v>15</v>
       </c>
       <c r="C27">
         <v>17</v>
+      </c>
+      <c r="D27">
+        <v>2021</v>
+      </c>
+      <c r="E27">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
